--- a/Auxilliary Scripts/points_spent_index.xlsx
+++ b/Auxilliary Scripts/points_spent_index.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
   <si>
     <t>EU4 Stats</t>
   </si>
@@ -241,6 +241,54 @@
   </si>
   <si>
     <t>Darlehen / Währung entwerten</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Admiral</t>
+  </si>
+  <si>
+    <t>Conquistador</t>
+  </si>
+  <si>
+    <t>Entdecker</t>
+  </si>
+  <si>
+    <t>Gewaltmarsch</t>
+  </si>
+  <si>
+    <t>Regierungswechsel</t>
+  </si>
+  <si>
+    <t>Kriegssteuern</t>
+  </si>
+  <si>
+    <t>Indianer-Ideen</t>
+  </si>
+  <si>
+    <t>Handelsposten erstellen</t>
+  </si>
+  <si>
+    <t>religiöse Reform</t>
+  </si>
+  <si>
+    <t>Primärkultur ändern</t>
+  </si>
+  <si>
+    <t>Siberische Grenze</t>
+  </si>
+  <si>
+    <t>government_interaction</t>
+  </si>
+  <si>
+    <t>enforce_culture</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>minority_expulsion</t>
   </si>
 </sst>
 </file>
@@ -618,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +763,9 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
@@ -732,6 +783,9 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
@@ -749,6 +803,9 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
@@ -766,6 +823,9 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
@@ -803,6 +863,9 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D10" s="1">
         <v>8</v>
       </c>
@@ -999,6 +1062,9 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F21" s="1">
         <v>19</v>
       </c>
@@ -1066,6 +1132,9 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F26" s="1">
         <v>24</v>
       </c>
@@ -1077,6 +1146,9 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F27" s="1">
         <v>25</v>
       </c>
@@ -1141,6 +1213,9 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
+      <c r="B32" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F32" s="1">
         <v>30</v>
       </c>
@@ -1166,11 +1241,17 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
+      <c r="B34" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -1224,11 +1305,17 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
+      <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
+      <c r="B43" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
@@ -1267,9 +1354,28 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
